--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H2">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I2">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J2">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>0.8978911005480001</v>
+        <v>0.2861213972760001</v>
       </c>
       <c r="R2">
-        <v>8.081019904932001</v>
+        <v>2.575092575484001</v>
       </c>
       <c r="S2">
-        <v>0.02970761444384397</v>
+        <v>0.01454130745258998</v>
       </c>
       <c r="T2">
-        <v>0.03345925213157854</v>
+        <v>0.0152784254128681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H3">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I3">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J3">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>0.315114147426</v>
+        <v>0.1008016276923333</v>
       </c>
       <c r="R3">
-        <v>2.836027326834</v>
+        <v>0.907214649231</v>
       </c>
       <c r="S3">
-        <v>0.01042586299365128</v>
+        <v>0.005122956458170064</v>
       </c>
       <c r="T3">
-        <v>0.01174249717200566</v>
+        <v>0.005382645844929254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H4">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I4">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J4">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.0066637545</v>
+        <v>0.004015361676333333</v>
       </c>
       <c r="R4">
-        <v>0.0599737905</v>
+        <v>0.03613825508700001</v>
       </c>
       <c r="S4">
-        <v>0.0002204769033946421</v>
+        <v>0.000204069353864461</v>
       </c>
       <c r="T4">
-        <v>0.0002483199152128379</v>
+        <v>0.0002144138972534431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H5">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I5">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J5">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>0.409331816595</v>
+        <v>0.0407709181715</v>
       </c>
       <c r="R5">
-        <v>2.455990899569999</v>
+        <v>0.244625509029</v>
       </c>
       <c r="S5">
-        <v>0.01354314769305639</v>
+        <v>0.002072066129623569</v>
       </c>
       <c r="T5">
-        <v>0.01016896625776428</v>
+        <v>0.001451401254217817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H6">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I6">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J6">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>0.047224823256</v>
+        <v>0.003830072143333334</v>
       </c>
       <c r="R6">
-        <v>0.425023409304</v>
+        <v>0.03447064929</v>
       </c>
       <c r="S6">
-        <v>0.001562479949530277</v>
+        <v>0.0001946525395585363</v>
       </c>
       <c r="T6">
-        <v>0.001759798339940521</v>
+        <v>0.0002045197322707562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H7">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I7">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J7">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>5.878265389238222</v>
+        <v>5.855664913488001</v>
       </c>
       <c r="R7">
-        <v>52.904388503144</v>
+        <v>52.70098422139201</v>
       </c>
       <c r="S7">
-        <v>0.1944882198693159</v>
+        <v>0.2975975395654725</v>
       </c>
       <c r="T7">
-        <v>0.2190492406426729</v>
+        <v>0.3126831494436418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H8">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I8">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J8">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>2.062972431003111</v>
@@ -948,10 +948,10 @@
         <v>18.566751879028</v>
       </c>
       <c r="S8">
-        <v>0.06825548170720917</v>
+        <v>0.1048447151140397</v>
       </c>
       <c r="T8">
-        <v>0.07687515186117894</v>
+        <v>0.1101594313321496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H9">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I9">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J9">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>0.04362591122222222</v>
+        <v>0.08217705039511111</v>
       </c>
       <c r="R9">
-        <v>0.392633201</v>
+        <v>0.739593453556</v>
       </c>
       <c r="S9">
-        <v>0.001443406388102251</v>
+        <v>0.004176415209483969</v>
       </c>
       <c r="T9">
-        <v>0.001625687527321874</v>
+        <v>0.004388123178009249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H10">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I10">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J10">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>2.679791623656666</v>
+        <v>0.8344039883086666</v>
       </c>
       <c r="R10">
-        <v>16.07874974193999</v>
+        <v>5.006423929852</v>
       </c>
       <c r="S10">
-        <v>0.08866355429611367</v>
+        <v>0.04240621305913551</v>
       </c>
       <c r="T10">
-        <v>0.06657364390945039</v>
+        <v>0.02970389310491684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H11">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I11">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J11">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>0.309168944752</v>
+        <v>0.07838497672444446</v>
       </c>
       <c r="R11">
-        <v>2.782520502768</v>
+        <v>0.70546479052</v>
       </c>
       <c r="S11">
-        <v>0.01022916008756177</v>
+        <v>0.003983693834385816</v>
       </c>
       <c r="T11">
-        <v>0.01152095356262887</v>
+        <v>0.004185632503460032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H12">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I12">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J12">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>4.107656377843112</v>
+        <v>4.156487386272</v>
       </c>
       <c r="R12">
-        <v>36.96890740058801</v>
+        <v>37.408386476448</v>
       </c>
       <c r="S12">
-        <v>0.1359058708414455</v>
+        <v>0.2112416672853396</v>
       </c>
       <c r="T12">
-        <v>0.1530687967975823</v>
+        <v>0.2219497846553072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H13">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I13">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J13">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>1.441578646489556</v>
+        <v>1.464345896559111</v>
       </c>
       <c r="R13">
-        <v>12.974207818406</v>
+        <v>13.179113069032</v>
       </c>
       <c r="S13">
-        <v>0.04769605422556557</v>
+        <v>0.07442122155675164</v>
       </c>
       <c r="T13">
-        <v>0.05371936905372551</v>
+        <v>0.07819373095552293</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H14">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I14">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J14">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.03048522661111111</v>
+        <v>0.05833118500711111</v>
       </c>
       <c r="R14">
-        <v>0.2743670395</v>
+        <v>0.524980665064</v>
       </c>
       <c r="S14">
-        <v>0.001008633850857158</v>
+        <v>0.002964516821662599</v>
       </c>
       <c r="T14">
-        <v>0.001136009570477913</v>
+        <v>0.003114792070289221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H15">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I15">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J15">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>1.872603978438333</v>
+        <v>0.5922793916146666</v>
       </c>
       <c r="R15">
-        <v>11.23562387063</v>
+        <v>3.553676349687999</v>
       </c>
       <c r="S15">
-        <v>0.06195695331371688</v>
+        <v>0.0301009180484113</v>
       </c>
       <c r="T15">
-        <v>0.04652080756706847</v>
+        <v>0.02108451539454909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H16">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I16">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J16">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>0.216043288904</v>
+        <v>0.05563948276444445</v>
       </c>
       <c r="R16">
-        <v>1.944389600136</v>
+        <v>0.50075534488</v>
       </c>
       <c r="S16">
-        <v>0.007148005728114377</v>
+        <v>0.002827718699417706</v>
       </c>
       <c r="T16">
-        <v>0.008050694422032493</v>
+        <v>0.00297105947167982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H17">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I17">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J17">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>1.62460795979</v>
+        <v>0.6821599587660001</v>
       </c>
       <c r="R17">
-        <v>9.747647758740001</v>
+        <v>4.092959752596001</v>
       </c>
       <c r="S17">
-        <v>0.05375175994325517</v>
+        <v>0.03466884261960285</v>
       </c>
       <c r="T17">
-        <v>0.0403598812880591</v>
+        <v>0.02428416783662836</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H18">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I18">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J18">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>0.5701548348550001</v>
+        <v>0.2403274793315</v>
       </c>
       <c r="R18">
-        <v>3.42092900913</v>
+        <v>1.441964875989</v>
       </c>
       <c r="S18">
-        <v>0.01886413619293957</v>
+        <v>0.01221396162445778</v>
       </c>
       <c r="T18">
-        <v>0.01416426733101519</v>
+        <v>0.00855540224670669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H19">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I19">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J19">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>0.01205712875</v>
+        <v>0.009573275475500001</v>
       </c>
       <c r="R19">
-        <v>0.0723427725</v>
+        <v>0.057439652853</v>
       </c>
       <c r="S19">
-        <v>0.0003989220207062718</v>
+        <v>0.0004865345386360653</v>
       </c>
       <c r="T19">
-        <v>0.0002995333625521239</v>
+        <v>0.0003407984086516386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H20">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I20">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J20">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>0.7406284871624998</v>
+        <v>0.09720450173774998</v>
       </c>
       <c r="R20">
-        <v>2.962513948649999</v>
+        <v>0.3888180069509999</v>
       </c>
       <c r="S20">
-        <v>0.02450442545796764</v>
+        <v>0.004940142747104508</v>
       </c>
       <c r="T20">
-        <v>0.01226621173036608</v>
+        <v>0.002306917807513904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H21">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I21">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J21">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N21">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O21">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P21">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q21">
-        <v>0.08544669137999999</v>
+        <v>0.009131515085000002</v>
       </c>
       <c r="R21">
-        <v>0.51268014828</v>
+        <v>0.05478909051000001</v>
       </c>
       <c r="S21">
-        <v>0.002827088230933486</v>
+        <v>0.0004640833213562889</v>
       </c>
       <c r="T21">
-        <v>0.002122738781238027</v>
+        <v>0.0003250722093509898</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H22">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I22">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J22">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N22">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O22">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P22">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q22">
-        <v>3.681587615405111</v>
+        <v>1.945734221808</v>
       </c>
       <c r="R22">
-        <v>33.134288538646</v>
+        <v>17.511607996272</v>
       </c>
       <c r="S22">
-        <v>0.1218089647541162</v>
+        <v>0.09888641607968723</v>
       </c>
       <c r="T22">
-        <v>0.1371916574216579</v>
+        <v>0.1038990982994618</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H23">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I23">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J23">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.203747</v>
       </c>
       <c r="O23">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P23">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q23">
-        <v>1.292050162758555</v>
+        <v>0.6854893708831111</v>
       </c>
       <c r="R23">
-        <v>11.628451464827</v>
+        <v>6.169404337947999</v>
       </c>
       <c r="S23">
-        <v>0.04274875656291804</v>
+        <v>0.0348380505351667</v>
       </c>
       <c r="T23">
-        <v>0.04814729997435199</v>
+        <v>0.03660403704183219</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H24">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I24">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J24">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N24">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O24">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P24">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q24">
-        <v>0.02732313086111111</v>
+        <v>0.02730598515511111</v>
       </c>
       <c r="R24">
-        <v>0.24590817775</v>
+        <v>0.245753866396</v>
       </c>
       <c r="S24">
-        <v>0.0009040127878817201</v>
+        <v>0.001387749148496258</v>
       </c>
       <c r="T24">
-        <v>0.001018176395721119</v>
+        <v>0.001458095974258137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H25">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I25">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J25">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N25">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O25">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P25">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q25">
-        <v>1.678367171305833</v>
+        <v>0.2772577356886666</v>
       </c>
       <c r="R25">
-        <v>10.070203027835</v>
+        <v>1.663546414132</v>
       </c>
       <c r="S25">
-        <v>0.05553043658627202</v>
+        <v>0.01409083702456814</v>
       </c>
       <c r="T25">
-        <v>0.04169541296623648</v>
+        <v>0.00987008003173743</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H26">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I26">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J26">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N26">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O26">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P26">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q26">
-        <v>0.193634088068</v>
+        <v>0.02604594592444445</v>
       </c>
       <c r="R26">
-        <v>1.742706792612</v>
+        <v>0.23441351332</v>
       </c>
       <c r="S26">
-        <v>0.00640657517153101</v>
+        <v>0.001323711233017415</v>
       </c>
       <c r="T26">
-        <v>0.007215632018160474</v>
+        <v>0.00139081189279373</v>
       </c>
     </row>
   </sheetData>
